--- a/ScoreSheet/スコアシートの使い方.xlsx
+++ b/ScoreSheet/スコアシートの使い方.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04 visualproject\cs-test\WPFApp\FRCTimer3\FRCTimer3\bin\Release\Apps\ScoreSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\Projects\robocon-timer\ScoreSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25656EB3-D33B-47EF-A5E9-1C6FF1FC2020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="7695"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="12" r:id="rId1"/>
@@ -21,10 +22,21 @@
     <sheet name="③得点の入力 (3)" sheetId="10" r:id="rId6"/>
     <sheet name="④最後に" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,29 +110,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーム シアたん</t>
+    <t>チームD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーム Nia</t>
+    <t>チームA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーム みょうが</t>
+    <t>チームB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーム その他</t>
-    <rPh sb="6" eb="7">
-      <t>タ</t>
-    </rPh>
+    <t>チームC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
@@ -1371,6 +1380,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,9 +1500,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,97 +1512,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1527,199 +1605,130 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2173,7 +2182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2253,7 +2268,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvPr id="5" name="下矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2315,7 +2336,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2493,7 +2520,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2566,7 +2599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2675,7 +2714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2745,7 +2790,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2782,7 +2833,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2882,7 +2939,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2920,7 +2983,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2975,7 +3044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3030,7 +3105,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="上矢印 8"/>
+        <xdr:cNvPr id="9" name="上矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3091,7 +3172,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3232,7 +3319,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3368,7 +3461,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3420,7 +3519,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3517,7 +3622,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形吹き出し 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形吹き出し 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3631,7 +3742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3744,7 +3861,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3988,7 +4111,7 @@
             <a:t>この計算式は</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3997,7 +4120,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Chronoir.net</a:t>
+            <a:t>ニアの技術研究所</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" baseline="0">
@@ -4063,7 +4186,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4131,7 +4260,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4169,9 +4304,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>© 2014-2016 Chronoir.net All Rights Reserved.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>© 2014-2025 Nia T.N. Lab.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4476,7 +4610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4491,11 +4625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4506,67 +4640,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="39" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="C2" s="56" t="s">
+        <v>チームA</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="35" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>チーム みょうが</v>
-      </c>
-      <c r="F2" s="56">
+        <v>チームB</v>
+      </c>
+      <c r="F2" s="36">
         <v>53</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="38">
         <v>53</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="35" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>チーム シアたん</v>
-      </c>
-      <c r="I2" s="56" t="s">
+        <v>チームC</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="55" t="str">
+      <c r="K2" s="35" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>チーム その他</v>
-      </c>
-      <c r="L2" s="56" t="s">
+        <v>チームD</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -4580,12 +4714,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -4595,48 +4729,48 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="52">
+      <c r="N3" s="25">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="27">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="29">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="46" t="str">
+      <c r="A4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="31" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46" t="str">
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="str">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="38"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="str">
@@ -4651,58 +4785,58 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="34">
+      <c r="N5" s="46">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="28">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>0</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="30">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="44" t="str">
+      <c r="A6" s="41"/>
+      <c r="B6" s="32" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="46" t="str">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="31" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="str">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="31" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="38"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>11</v>
+      <c r="A7" s="53" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="str">
         <f>IF(I3="","",I3)</f>
@@ -4728,55 +4862,55 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="30"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="34">
+      <c r="N7" s="46">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="28">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>0</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="30">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="44" t="str">
+      <c r="A8" s="41"/>
+      <c r="B8" s="32" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46" t="str">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="46" t="str">
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="31" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="38"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>14</v>
+      <c r="A9" s="53" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IF(L3="","",L3)</f>
@@ -4814,48 +4948,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v/>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="34">
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="46">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="28">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>0</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="30">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="40" t="str">
+      <c r="A10" s="54"/>
+      <c r="B10" s="50" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="str">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="str">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="39"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4864,6 +4998,30 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
@@ -4877,62 +5035,38 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:M4">
-    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="LOSER">
-      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="WINNER">
-      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="14" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:G8">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:J10">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:M4">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="LOSER">
+      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="WINNER">
+      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
@@ -4961,7 +5095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0"/>
@@ -5013,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
@@ -5028,67 +5162,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="71" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="C2" s="86" t="s">
+        <v>チームA</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="88" t="str">
+      <c r="E2" s="74" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>チーム みょうが</v>
-      </c>
-      <c r="F2" s="89">
+        <v>チームB</v>
+      </c>
+      <c r="F2" s="75">
         <v>53</v>
       </c>
-      <c r="G2" s="90">
+      <c r="G2" s="76">
         <v>53</v>
       </c>
-      <c r="H2" s="91" t="str">
+      <c r="H2" s="77" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>チーム シアたん</v>
-      </c>
-      <c r="I2" s="86" t="s">
+        <v>チームC</v>
+      </c>
+      <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="91" t="str">
+      <c r="K2" s="77" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>チーム その他</v>
-      </c>
-      <c r="L2" s="86" t="s">
+        <v>チームD</v>
+      </c>
+      <c r="L2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="78" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -5102,13 +5236,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="str">
+      <c r="A3" s="79" t="str">
         <f>①チーム名のエントリー!A3</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+        <v>チームA</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="14">
         <v>7</v>
       </c>
@@ -5122,50 +5256,50 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="52">
+      <c r="N3" s="25">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="27">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>1.0065</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="29">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="78" t="str">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="85" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="44" t="str">
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="32" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="str">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="38"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81" t="str">
+      <c r="A5" s="65" t="str">
         <f>①チーム名のエントリー!A5</f>
-        <v>チーム みょうが</v>
+        <v>チームB</v>
       </c>
       <c r="B5" s="17">
         <f>IF(F3="","",F3)</f>
@@ -5179,59 +5313,59 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="34">
+      <c r="N5" s="46">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="28">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>-1E-3</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="30">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="95" t="str">
+      <c r="A6" s="66"/>
+      <c r="B6" s="82" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="46" t="str">
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="31" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="str">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="31" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="38"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65" t="str">
+      <c r="A7" s="88" t="str">
         <f>①チーム名のエントリー!A7</f>
-        <v>チーム シアたん</v>
+        <v>チームC</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>IF(I3="","",I3)</f>
@@ -5257,56 +5391,56 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="74"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="34">
+      <c r="N7" s="46">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="28">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>0</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="30">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="44" t="str">
+      <c r="A8" s="80"/>
+      <c r="B8" s="32" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46" t="str">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="46" t="str">
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="31" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="38"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65" t="str">
+      <c r="A9" s="88" t="str">
         <f>①チーム名のエントリー!A9</f>
-        <v>チーム その他</v>
+        <v>チームD</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IF(L3="","",L3)</f>
@@ -5344,48 +5478,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v/>
       </c>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="34">
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="46">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="28">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>0</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="30">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="40" t="str">
+      <c r="A10" s="89"/>
+      <c r="B10" s="50" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="str">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="str">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="39"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5394,6 +5528,29 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="N5:N6"/>
@@ -5408,61 +5565,38 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:M4">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="LOSER">
-      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="WINNER">
-      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:G8">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:J10">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:M4">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="LOSER">
+      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="WINNER">
+      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
@@ -5488,7 +5622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
@@ -5503,67 +5637,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="71" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="C2" s="86" t="s">
+        <v>チームA</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="91" t="str">
+      <c r="E2" s="77" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>チーム みょうが</v>
-      </c>
-      <c r="F2" s="86">
+        <v>チームB</v>
+      </c>
+      <c r="F2" s="72">
         <v>53</v>
       </c>
-      <c r="G2" s="87">
+      <c r="G2" s="73">
         <v>53</v>
       </c>
-      <c r="H2" s="91" t="str">
+      <c r="H2" s="77" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>チーム シアたん</v>
-      </c>
-      <c r="I2" s="86" t="s">
+        <v>チームC</v>
+      </c>
+      <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="91" t="str">
+      <c r="K2" s="77" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>チーム その他</v>
-      </c>
-      <c r="L2" s="86" t="s">
+        <v>チームD</v>
+      </c>
+      <c r="L2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="78" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -5577,13 +5711,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="str">
+      <c r="A3" s="79" t="str">
         <f>①チーム名のエントリー!A3</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+        <v>チームA</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="10">
         <v>7</v>
       </c>
@@ -5597,50 +5731,50 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="52">
+      <c r="N3" s="25">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O3" s="112">
+      <c r="O3" s="98">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>1.0065</v>
       </c>
-      <c r="P3" s="113">
+      <c r="P3" s="100">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="46" t="str">
+      <c r="A4" s="80"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="31" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46" t="str">
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="str">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="101"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="str">
+      <c r="A5" s="88" t="str">
         <f>①チーム名のエントリー!A5</f>
-        <v>チーム みょうが</v>
+        <v>チームB</v>
       </c>
       <c r="B5" s="7">
         <f>IF(F3="","",F3)</f>
@@ -5654,59 +5788,59 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="34">
+      <c r="N5" s="46">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="98">
+      <c r="O5" s="104">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>-1E-3</v>
       </c>
-      <c r="P5" s="100">
+      <c r="P5" s="105">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="44" t="str">
+      <c r="A6" s="80"/>
+      <c r="B6" s="32" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="46" t="str">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="31" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="109" t="str">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="106" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="101"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65" t="str">
+      <c r="A7" s="88" t="str">
         <f>①チーム名のエントリー!A7</f>
-        <v>チーム シアたん</v>
+        <v>チームC</v>
       </c>
       <c r="B7" s="7" t="str">
         <f>IF(I3="","",I3)</f>
@@ -5732,9 +5866,9 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14">
         <v>11</v>
       </c>
@@ -5744,50 +5878,50 @@
       <c r="M7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="105">
+      <c r="N7" s="102">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="98">
+      <c r="O7" s="104">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>1.0055000000000001</v>
       </c>
-      <c r="P7" s="100">
+      <c r="P7" s="105">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="44" t="str">
+      <c r="A8" s="80"/>
+      <c r="B8" s="32" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46" t="str">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="78" t="str">
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="85" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="101"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65" t="str">
+      <c r="A9" s="88" t="str">
         <f>①チーム名のエントリー!A9</f>
-        <v>チーム その他</v>
+        <v>チームD</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IF(L3="","",L3)</f>
@@ -5825,48 +5959,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v>×</v>
       </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="34">
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="46">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="98">
+      <c r="O9" s="104">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="P9" s="100">
+      <c r="P9" s="105">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="40" t="str">
+      <c r="A10" s="89"/>
+      <c r="B10" s="50" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="str">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="95" t="str">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="82" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="I10" s="96"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="101"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="113"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5875,6 +6009,29 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="N5:N6"/>
@@ -5889,61 +6046,38 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:M4">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="LOSER">
-      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="WINNER">
-      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:G8">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:J10">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:M4">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="LOSER">
+      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="WINNER">
+      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
@@ -5969,11 +6103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5984,67 +6118,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="71" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="C2" s="86" t="s">
+        <v>チームA</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="91" t="str">
+      <c r="E2" s="77" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>チーム みょうが</v>
-      </c>
-      <c r="F2" s="86">
+        <v>チームB</v>
+      </c>
+      <c r="F2" s="72">
         <v>53</v>
       </c>
-      <c r="G2" s="87">
+      <c r="G2" s="73">
         <v>53</v>
       </c>
-      <c r="H2" s="91" t="str">
+      <c r="H2" s="77" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>チーム シアたん</v>
-      </c>
-      <c r="I2" s="86" t="s">
+        <v>チームC</v>
+      </c>
+      <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="91" t="str">
+      <c r="K2" s="77" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>チーム その他</v>
-      </c>
-      <c r="L2" s="86" t="s">
+        <v>チームD</v>
+      </c>
+      <c r="L2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="78" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -6058,13 +6192,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="str">
+      <c r="A3" s="79" t="str">
         <f>①チーム名のエントリー!A3</f>
-        <v>チーム Nia</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
+        <v>チームA</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="10">
         <v>7</v>
       </c>
@@ -6088,50 +6222,50 @@
         <v>-4</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="135">
+      <c r="N3" s="126">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>2</v>
       </c>
-      <c r="O3" s="136">
+      <c r="O3" s="127">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>2.0225</v>
       </c>
-      <c r="P3" s="137">
+      <c r="P3" s="129">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="46" t="str">
+      <c r="A4" s="80"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="31" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46" t="str">
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="str">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="116"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="130"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="str">
+      <c r="A5" s="88" t="str">
         <f>①チーム名のエントリー!A5</f>
-        <v>チーム みょうが</v>
+        <v>チームB</v>
       </c>
       <c r="B5" s="7">
         <f>IF(F3="","",F3)</f>
@@ -6145,9 +6279,9 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="126"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="5">
         <v>11</v>
       </c>
@@ -6164,50 +6298,50 @@
       <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="118">
+      <c r="N5" s="120">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O5" s="114">
+      <c r="O5" s="128">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>1.0085</v>
       </c>
-      <c r="P5" s="116">
+      <c r="P5" s="130">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="44" t="str">
+      <c r="A6" s="80"/>
+      <c r="B6" s="32" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="46" t="str">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="31" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="str">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="31" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="116"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="130"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65" t="str">
+      <c r="A7" s="88" t="str">
         <f>①チーム名のエントリー!A7</f>
-        <v>チーム シアたん</v>
+        <v>チームC</v>
       </c>
       <c r="B7" s="7">
         <f>IF(I3="","",I3)</f>
@@ -6233,9 +6367,9 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="126"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
       <c r="K7" s="5">
         <v>11</v>
       </c>
@@ -6245,50 +6379,50 @@
       <c r="M7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="118">
+      <c r="N7" s="120">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="114">
+      <c r="O7" s="128">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>2.0285000000000002</v>
       </c>
-      <c r="P7" s="116">
+      <c r="P7" s="130">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="44" t="str">
+      <c r="A8" s="80"/>
+      <c r="B8" s="32" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46" t="str">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="46" t="str">
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="31" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="116"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="130"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65" t="str">
+      <c r="A9" s="88" t="str">
         <f>①チーム名のエントリー!A9</f>
-        <v>チーム その他</v>
+        <v>チームD</v>
       </c>
       <c r="B9" s="7">
         <f>IF(L3="","",L3)</f>
@@ -6326,48 +6460,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v>×</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="118">
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="120">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O9" s="114">
+      <c r="O9" s="128">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>0.99050000000000005</v>
       </c>
-      <c r="P9" s="116">
+      <c r="P9" s="130">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="40" t="str">
+      <c r="A10" s="89"/>
+      <c r="B10" s="50" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="str">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="str">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="117"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6376,6 +6510,29 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="N5:N6"/>
@@ -6390,61 +6547,38 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:M4">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="LOSER">
-      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="WINNER">
-      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:G8">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:J10">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="LOSER">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="LOSER">
       <formula>NOT(ISERROR(SEARCH("LOSER",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="WINNER">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="WINNER">
       <formula>NOT(ISERROR(SEARCH("WINNER",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:M4">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="LOSER">
+      <formula>NOT(ISERROR(SEARCH("LOSER",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="WINNER">
+      <formula>NOT(ISERROR(SEARCH("WINNER",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
@@ -6470,10 +6604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
